--- a/template/tcexam_users_template_awal.xlsx
+++ b/template/tcexam_users_template_awal.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tmfajax-main\template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4F2F56-5935-4BCF-A3F3-15E5FA31E6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="600" windowWidth="19815" windowHeight="6855"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>user_id</t>
   </si>
@@ -64,20 +70,23 @@
     <t>user_groups</t>
   </si>
   <si>
-    <t>maman</t>
-  </si>
-  <si>
-    <t>Maman Sulaeman</t>
-  </si>
-  <si>
-    <t>TKJ</t>
+    <t>miftah</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Huda Guntara</t>
+  </si>
+  <si>
+    <t>Pengawas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -112,6 +121,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -401,19 +418,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,21 +480,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C2">
-        <v>321321321</v>
+      <c r="C2" t="s">
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
